--- a/biology/Zoologie/Anatolidion_gentile/Anatolidion_gentile.xlsx
+++ b/biology/Zoologie/Anatolidion_gentile/Anatolidion_gentile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anatolidion gentile, unique représentant du genre Anatolidion, est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anatolidion gentile, unique représentant du genre Anatolidion, est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en France, en Espagne, au Portugal, au Maroc, en Algérie, en Italie, en Macédoine du Nord, en Grèce, en Turquie et en Ukraine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en France, en Espagne, au Portugal, au Maroc, en Algérie, en Italie, en Macédoine du Nord, en Grèce, en Turquie et en Ukraine.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1 mm et l'abdomen 1,5 mm[2].
-Les mâles mesurent de 2 à 2,5 mm et les femelles de 2,2 à 2,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1 mm et l'abdomen 1,5 mm.
+Les mâles mesurent de 2 à 2,5 mm et les femelles de 2,2 à 2,5 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Theridion gentile par Simon en 1881. Elle est placée dans le genre Anatolidion par Wunderlich en 2008[4].
-Theridion crinigerum[2] et Anatolidion osmani[4] ont été placées en synonymie par Knoflach, Rollard et Thaler en 2009[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Theridion gentile par Simon en 1881. Elle est placée dans le genre Anatolidion par Wunderlich en 2008.
+Theridion crinigerum et Anatolidion osmani ont été placées en synonymie par Knoflach, Rollard et Thaler en 2009.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1881 : Les arachnides de France. Paris, vol. 5, p. 1-180 (texte intégral).
 Wunderlich, 2008 : « On extant and fossil (Eocene) European comb-footed spiders (Araneae: Theridiidae), with notes on their subfamilies, and with descriptions of new taxa. » Beiträge zur Araneologie, vol. 5, p. 140-469.</t>
